--- a/data/mistakes/annotated/stanza_XPOS_mistakes_annotated.xlsx
+++ b/data/mistakes/annotated/stanza_XPOS_mistakes_annotated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/WSMF-presentation/data/mistakes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/WSMF-presentation/data/mistakes/annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_09916A714061B00F62355476585DCE3A8745C486" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C367436-CF84-4A36-9C40-E32679C411BA}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_09916A714061B00F62355476585DCE3A8745C486" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F2EE755-45AB-4671-B321-3D19FB0E21B0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="961">
   <si>
     <t>Token</t>
   </si>
@@ -2893,12 +2893,6 @@
     <t>abbreviation</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>numeral</t>
-  </si>
-  <si>
     <t>grammar</t>
   </si>
   <si>
@@ -2906,6 +2900,9 @@
   </si>
   <si>
     <t>annotation</t>
+  </si>
+  <si>
+    <t>unidentified</t>
   </si>
 </sst>
 </file>
@@ -2975,7 +2972,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2993,6 +2990,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3283,7 +3284,7 @@
   <dimension ref="A1:F403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F391" sqref="F391:F403"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,7 +3510,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3549,7 +3550,7 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3589,7 +3590,7 @@
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3709,7 +3710,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4269,7 +4270,7 @@
         <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4369,7 +4370,7 @@
         <v>131</v>
       </c>
       <c r="F54" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4389,7 +4390,7 @@
         <v>159</v>
       </c>
       <c r="F55" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -4429,7 +4430,7 @@
         <v>166</v>
       </c>
       <c r="F57" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4449,7 +4450,7 @@
         <v>170</v>
       </c>
       <c r="F58" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4489,7 +4490,7 @@
         <v>178</v>
       </c>
       <c r="F60" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4529,7 +4530,7 @@
         <v>185</v>
       </c>
       <c r="F62" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -4569,7 +4570,7 @@
         <v>65</v>
       </c>
       <c r="F64" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4609,7 +4610,7 @@
         <v>198</v>
       </c>
       <c r="F66" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4649,7 +4650,7 @@
         <v>65</v>
       </c>
       <c r="F68" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4669,7 +4670,7 @@
         <v>208</v>
       </c>
       <c r="F69" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4889,7 +4890,7 @@
         <v>71</v>
       </c>
       <c r="F80" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -5029,7 +5030,7 @@
         <v>28</v>
       </c>
       <c r="F87" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -5049,7 +5050,7 @@
         <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -5409,7 +5410,7 @@
         <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -5429,7 +5430,7 @@
         <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -5489,7 +5490,7 @@
         <v>6</v>
       </c>
       <c r="F110" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -5589,7 +5590,7 @@
         <v>331</v>
       </c>
       <c r="F115" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -5609,7 +5610,7 @@
         <v>70</v>
       </c>
       <c r="F116" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -5629,7 +5630,7 @@
         <v>337</v>
       </c>
       <c r="F117" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -5809,7 +5810,7 @@
         <v>362</v>
       </c>
       <c r="F126" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -5849,7 +5850,7 @@
         <v>211</v>
       </c>
       <c r="F128" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -5989,7 +5990,7 @@
         <v>198</v>
       </c>
       <c r="F135" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -6009,7 +6010,7 @@
         <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -6209,7 +6210,7 @@
         <v>65</v>
       </c>
       <c r="F146" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -6349,7 +6350,7 @@
         <v>48</v>
       </c>
       <c r="F153" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -6389,7 +6390,7 @@
         <v>159</v>
       </c>
       <c r="F155" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -6489,7 +6490,7 @@
         <v>41</v>
       </c>
       <c r="F160" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -6669,7 +6670,7 @@
         <v>459</v>
       </c>
       <c r="F169" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -6809,7 +6810,7 @@
         <v>7</v>
       </c>
       <c r="F176" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -6849,7 +6850,7 @@
         <v>211</v>
       </c>
       <c r="F178" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -6889,7 +6890,7 @@
         <v>295</v>
       </c>
       <c r="F180" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6929,7 +6930,7 @@
         <v>198</v>
       </c>
       <c r="F182" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6989,7 +6990,7 @@
         <v>92</v>
       </c>
       <c r="F185" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -7089,7 +7090,7 @@
         <v>198</v>
       </c>
       <c r="F190" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -7309,7 +7310,7 @@
         <v>530</v>
       </c>
       <c r="F201" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -7429,7 +7430,7 @@
         <v>7</v>
       </c>
       <c r="F207" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -7609,7 +7610,7 @@
         <v>240</v>
       </c>
       <c r="F216" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -7649,7 +7650,7 @@
         <v>569</v>
       </c>
       <c r="F218" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -7789,7 +7790,7 @@
         <v>70</v>
       </c>
       <c r="F225" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -8269,7 +8270,7 @@
         <v>87</v>
       </c>
       <c r="F249" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -8329,7 +8330,7 @@
         <v>33</v>
       </c>
       <c r="F252" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -8349,7 +8350,7 @@
         <v>198</v>
       </c>
       <c r="F253" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -8469,7 +8470,7 @@
         <v>87</v>
       </c>
       <c r="F259" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -8549,7 +8550,7 @@
         <v>211</v>
       </c>
       <c r="F263" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -8569,7 +8570,7 @@
         <v>670</v>
       </c>
       <c r="F264" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -8589,7 +8590,7 @@
         <v>674</v>
       </c>
       <c r="F265" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -8629,7 +8630,7 @@
         <v>24</v>
       </c>
       <c r="F267" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -8649,7 +8650,7 @@
         <v>65</v>
       </c>
       <c r="F268" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -8669,7 +8670,7 @@
         <v>240</v>
       </c>
       <c r="F269" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -8769,7 +8770,7 @@
         <v>473</v>
       </c>
       <c r="F274" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -8909,7 +8910,7 @@
         <v>605</v>
       </c>
       <c r="F281" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -8989,7 +8990,7 @@
         <v>240</v>
       </c>
       <c r="F285" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -9029,7 +9030,7 @@
         <v>720</v>
       </c>
       <c r="F287" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -9049,7 +9050,7 @@
         <v>724</v>
       </c>
       <c r="F288" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -9189,7 +9190,7 @@
         <v>240</v>
       </c>
       <c r="F295" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -9349,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="F303" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -9369,7 +9370,7 @@
         <v>7</v>
       </c>
       <c r="F304" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -9389,7 +9390,7 @@
         <v>728</v>
       </c>
       <c r="F305" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -9409,7 +9410,7 @@
         <v>760</v>
       </c>
       <c r="F306" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -9429,7 +9430,7 @@
         <v>723</v>
       </c>
       <c r="F307" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -9449,7 +9450,7 @@
         <v>760</v>
       </c>
       <c r="F308" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -9469,7 +9470,7 @@
         <v>58</v>
       </c>
       <c r="F309" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -9489,7 +9490,7 @@
         <v>7</v>
       </c>
       <c r="F310" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -9509,7 +9510,7 @@
         <v>760</v>
       </c>
       <c r="F311" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -9849,7 +9850,7 @@
         <v>70</v>
       </c>
       <c r="F328" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -10089,7 +10090,7 @@
         <v>142</v>
       </c>
       <c r="F340" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -10249,7 +10250,7 @@
         <v>58</v>
       </c>
       <c r="F348" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -10329,7 +10330,7 @@
         <v>842</v>
       </c>
       <c r="F352" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -10349,7 +10350,7 @@
         <v>295</v>
       </c>
       <c r="F353" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -10469,7 +10470,7 @@
         <v>6</v>
       </c>
       <c r="F359" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -10569,7 +10570,7 @@
         <v>673</v>
       </c>
       <c r="F364" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -10709,7 +10710,7 @@
         <v>441</v>
       </c>
       <c r="F371" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -10889,7 +10890,7 @@
         <v>211</v>
       </c>
       <c r="F380" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -10909,7 +10910,7 @@
         <v>211</v>
       </c>
       <c r="F381" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -10969,7 +10970,7 @@
         <v>65</v>
       </c>
       <c r="F384" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -10989,7 +10990,7 @@
         <v>253</v>
       </c>
       <c r="F385" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -11189,7 +11190,7 @@
         <v>285</v>
       </c>
       <c r="F395" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -11249,7 +11250,7 @@
         <v>65</v>
       </c>
       <c r="F398" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -11269,7 +11270,7 @@
         <v>65</v>
       </c>
       <c r="F399" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
